--- a/DuLieuThucHanh2_V1.xlsx
+++ b/DuLieuThucHanh2_V1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuceedu-my.sharepoint.com/personal/dung47265_huce_edu_vn/Documents/Hoc tap/Ky2-Nam4/LTUDTKT/ThucHanh2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuceedu-my.sharepoint.com/personal/dung51165_huce_edu_vn/Documents/ME/IT5/Ky 1 23-24/Dev for engineering/BTL/N06_Pandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{22FA11D8-FDB2-46FF-AE3B-D519A313A3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{485F7CD7-27A5-4185-838A-D209A51D41D6}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{22FA11D8-FDB2-46FF-AE3B-D519A313A3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF9CA29D-C566-4890-8558-F23DEC000AE4}"/>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="936" windowWidth="17856" windowHeight="8880" firstSheet="2" activeTab="3" xr2:uid="{F458A799-C09C-4EC7-9AD7-CC3D648776AF}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{F458A799-C09C-4EC7-9AD7-CC3D648776AF}"/>
   </bookViews>
   <sheets>
     <sheet name="San Pham" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>So Luong</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Vũ Duy Hưng</t>
+  </si>
+  <si>
+    <t>SP số 3</t>
   </si>
 </sst>
 </file>
@@ -434,21 +437,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405FE032-1726-403A-8B86-23EEC9FE5DD0}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -462,7 +465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -470,13 +473,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -488,6 +491,20 @@
       </c>
       <c r="D3" s="1">
         <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12000</v>
       </c>
     </row>
   </sheetData>
@@ -503,14 +520,14 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -518,7 +535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -526,7 +543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -534,7 +551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -542,7 +559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -550,7 +567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -565,20 +582,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4B872C-EE8A-4822-9548-CBBEDC60BD65}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="A5:B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -586,7 +603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -594,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -602,12 +619,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -617,20 +642,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950DF5DA-EE46-4B46-B7A5-CBA8EA93B4FA}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -641,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -652,26 +677,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
